--- a/datasets/modelo_dados_individuais.xlsx
+++ b/datasets/modelo_dados_individuais.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulofernandomarquesdiasgomescarneiro/Documents/GitHub/st_controle_saude/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C14FAB-1FDC-1143-96F9-75B2B9732DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7545A4EE-5933-A84C-A349-4DB4D86F8AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,12 +28,6 @@
     <t>IMC</t>
   </si>
   <si>
-    <t>Percentual de Gordura Corporal</t>
-  </si>
-  <si>
-    <t>Percentual de Musculatura Corporal</t>
-  </si>
-  <si>
     <t>Metabolismo Basal</t>
   </si>
   <si>
@@ -47,6 +41,12 @@
   </si>
   <si>
     <t>Data do Registro</t>
+  </si>
+  <si>
+    <t>Musculatura Corporal</t>
+  </si>
+  <si>
+    <t>Gordura Corporal</t>
   </si>
 </sst>
 </file>
@@ -413,17 +413,17 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -432,19 +432,19 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
